--- a/output/movieData.xlsx
+++ b/output/movieData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="11040"/>
+    <workbookView windowWidth="28800" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>Movie</t>
   </si>
@@ -283,16 +283,34 @@
   <si>
     <t>The billion dollar</t>
   </si>
+  <si>
+    <t>The Orphan</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>The Call</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Get Out</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -319,6 +337,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -327,26 +360,18 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,22 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -389,22 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,14 +416,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,26 +465,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -484,6 +502,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,13 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,31 +580,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,73 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +786,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -787,22 +820,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,9 +857,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,162 +883,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,19 +1042,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,7 +1421,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1412,7 +1430,7 @@
     <col min="2" max="3" width="12.3125" customWidth="1"/>
     <col min="4" max="4" width="10.9375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="12.6875"/>
+    <col min="6" max="6" width="12.6875" customWidth="1"/>
     <col min="9" max="9" width="2.2109375" customWidth="1"/>
     <col min="10" max="10" width="2.5" customWidth="1"/>
     <col min="11" max="11" width="13.125" customWidth="1"/>
@@ -1464,12 +1482,12 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <f>ROUND(((E2/10)+D2+IFERROR((VLOOKUP(B2,K2:L10,2,FALSE)+VLOOKUP(C2,K2:L10,2,FALSE)),0))/3,0)</f>
+        <f t="shared" ref="F2:F65" si="0">ROUND(((E2/10)+D2+IFERROR((VLOOKUP(B2,K2:L10,2,FALSE)+VLOOKUP(C2,K2:L10,2,FALSE)),0))/3,0)</f>
         <v>5</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF(F2&gt;$L$11,"Yes","No")</f>
-        <v>Yes</v>
+        <f t="shared" ref="G2:G65" si="1">IF(F2&gt;$L$11,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -1495,11 +1513,11 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <f>ROUND(((E3/10)+D3+IFERROR((VLOOKUP(B3,K3:L11,2,FALSE)+VLOOKUP(C3,K3:L11,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF(F3&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1526,11 +1544,11 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">ROUND(((E4/10)+D4+IFERROR((VLOOKUP(B4,K4:L12,2,FALSE)+VLOOKUP(C4,K4:L12,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G67" si="1">IF(F4&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1624,7 +1642,7 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>20</v>
@@ -1655,7 +1673,7 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>30</v>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>16</v>
@@ -1754,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="L11" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1979,7 +1997,7 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2004,7 +2022,7 @@
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2157,34 +2175,79 @@
         <v>No</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -2539,31 +2602,31 @@
     </row>
     <row r="66" spans="6:7">
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F66:F129" si="2">ROUND(((E66/10)+D66+IFERROR((VLOOKUP(B66,K66:L74,2,FALSE)+VLOOKUP(C66,K66:L74,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G66:G129" si="3">IF(F66&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="2">ROUND(((E68/10)+D68+IFERROR((VLOOKUP(B68,K68:L76,2,FALSE)+VLOOKUP(C68,K68:L76,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" ref="G68:G131" si="3">IF(F68&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -3179,31 +3242,31 @@
     </row>
     <row r="130" spans="6:7">
       <c r="F130">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F130:F193" si="4">ROUND(((E130/10)+D130+IFERROR((VLOOKUP(B130,K130:L138,2,FALSE)+VLOOKUP(C130,K130:L138,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G130:G193" si="5">IF(F130&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132">
-        <f t="shared" ref="F132:F195" si="4">ROUND(((E132/10)+D132+IFERROR((VLOOKUP(B132,K132:L140,2,FALSE)+VLOOKUP(C132,K132:L140,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f t="shared" ref="G132:G195" si="5">IF(F132&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -3819,31 +3882,31 @@
     </row>
     <row r="194" spans="6:7">
       <c r="F194">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F194:F257" si="6">ROUND(((E194/10)+D194+IFERROR((VLOOKUP(B194,K194:L202,2,FALSE)+VLOOKUP(C194,K194:L202,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G194" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G194:G257" si="7">IF(F194&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="195" spans="6:7">
       <c r="F195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G195" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
     <row r="196" spans="6:7">
       <c r="F196">
-        <f t="shared" ref="F196:F259" si="6">ROUND(((E196/10)+D196+IFERROR((VLOOKUP(B196,K196:L204,2,FALSE)+VLOOKUP(C196,K196:L204,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G196" s="1" t="str">
-        <f t="shared" ref="G196:G259" si="7">IF(F196&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -4459,31 +4522,31 @@
     </row>
     <row r="258" spans="6:7">
       <c r="F258">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F258:F321" si="8">ROUND(((E258/10)+D258+IFERROR((VLOOKUP(B258,K258:L266,2,FALSE)+VLOOKUP(C258,K258:L266,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G258" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G258:G321" si="9">IF(F258&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="259" spans="6:7">
       <c r="F259">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G259" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
     <row r="260" spans="6:7">
       <c r="F260">
-        <f t="shared" ref="F260:F323" si="8">ROUND(((E260/10)+D260+IFERROR((VLOOKUP(B260,K260:L268,2,FALSE)+VLOOKUP(C260,K260:L268,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G260" s="1" t="str">
-        <f t="shared" ref="G260:G323" si="9">IF(F260&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -5099,31 +5162,31 @@
     </row>
     <row r="322" spans="6:7">
       <c r="F322">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F322:F385" si="10">ROUND(((E322/10)+D322+IFERROR((VLOOKUP(B322,K322:L330,2,FALSE)+VLOOKUP(C322,K322:L330,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G322" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G322:G385" si="11">IF(F322&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="323" spans="6:7">
       <c r="F323">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G323" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
     <row r="324" spans="6:7">
       <c r="F324">
-        <f t="shared" ref="F324:F387" si="10">ROUND(((E324/10)+D324+IFERROR((VLOOKUP(B324,K324:L332,2,FALSE)+VLOOKUP(C324,K324:L332,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G324" s="1" t="str">
-        <f t="shared" ref="G324:G387" si="11">IF(F324&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -5739,31 +5802,31 @@
     </row>
     <row r="386" spans="6:7">
       <c r="F386">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F386:F449" si="12">ROUND(((E386/10)+D386+IFERROR((VLOOKUP(B386,K386:L394,2,FALSE)+VLOOKUP(C386,K386:L394,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G386" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G386:G449" si="13">IF(F386&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="387" spans="6:7">
       <c r="F387">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G387" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
     <row r="388" spans="6:7">
       <c r="F388">
-        <f t="shared" ref="F388:F451" si="12">ROUND(((E388/10)+D388+IFERROR((VLOOKUP(B388,K388:L396,2,FALSE)+VLOOKUP(C388,K388:L396,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G388" s="1" t="str">
-        <f t="shared" ref="G388:G451" si="13">IF(F388&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6379,31 +6442,31 @@
     </row>
     <row r="450" spans="6:7">
       <c r="F450">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F450:F513" si="14">ROUND(((E450/10)+D450+IFERROR((VLOOKUP(B450,K450:L458,2,FALSE)+VLOOKUP(C450,K450:L458,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G450" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G450:G513" si="15">IF(F450&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="451" spans="6:7">
       <c r="F451">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G451" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
     <row r="452" spans="6:7">
       <c r="F452">
-        <f t="shared" ref="F452:F515" si="14">ROUND(((E452/10)+D452+IFERROR((VLOOKUP(B452,K452:L460,2,FALSE)+VLOOKUP(C452,K452:L460,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G452" s="1" t="str">
-        <f t="shared" ref="G452:G515" si="15">IF(F452&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -7019,31 +7082,31 @@
     </row>
     <row r="514" spans="6:7">
       <c r="F514">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F514:F577" si="16">ROUND(((E514/10)+D514+IFERROR((VLOOKUP(B514,K514:L522,2,FALSE)+VLOOKUP(C514,K514:L522,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G514" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G514:G577" si="17">IF(F514&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="515" spans="6:7">
       <c r="F515">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G515" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
     </row>
     <row r="516" spans="6:7">
       <c r="F516">
-        <f t="shared" ref="F516:F579" si="16">ROUND(((E516/10)+D516+IFERROR((VLOOKUP(B516,K516:L524,2,FALSE)+VLOOKUP(C516,K516:L524,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G516" s="1" t="str">
-        <f t="shared" ref="G516:G579" si="17">IF(F516&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
     </row>
@@ -7659,31 +7722,31 @@
     </row>
     <row r="578" spans="6:7">
       <c r="F578">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F578:F641" si="18">ROUND(((E578/10)+D578+IFERROR((VLOOKUP(B578,K578:L586,2,FALSE)+VLOOKUP(C578,K578:L586,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G578" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G578:G641" si="19">IF(F578&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="579" spans="6:7">
       <c r="F579">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G579" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
     </row>
     <row r="580" spans="6:7">
       <c r="F580">
-        <f t="shared" ref="F580:F643" si="18">ROUND(((E580/10)+D580+IFERROR((VLOOKUP(B580,K580:L588,2,FALSE)+VLOOKUP(C580,K580:L588,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G580" s="1" t="str">
-        <f t="shared" ref="G580:G643" si="19">IF(F580&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
     </row>
@@ -8299,31 +8362,31 @@
     </row>
     <row r="642" spans="6:7">
       <c r="F642">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F642:F705" si="20">ROUND(((E642/10)+D642+IFERROR((VLOOKUP(B642,K642:L650,2,FALSE)+VLOOKUP(C642,K642:L650,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G642" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G642:G705" si="21">IF(F642&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="643" spans="6:7">
       <c r="F643">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G643" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
     </row>
     <row r="644" spans="6:7">
       <c r="F644">
-        <f t="shared" ref="F644:F707" si="20">ROUND(((E644/10)+D644+IFERROR((VLOOKUP(B644,K644:L652,2,FALSE)+VLOOKUP(C644,K644:L652,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G644" s="1" t="str">
-        <f t="shared" ref="G644:G707" si="21">IF(F644&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
     </row>
@@ -8939,31 +9002,31 @@
     </row>
     <row r="706" spans="6:7">
       <c r="F706">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F706:F769" si="22">ROUND(((E706/10)+D706+IFERROR((VLOOKUP(B706,K706:L714,2,FALSE)+VLOOKUP(C706,K706:L714,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G706" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G706:G769" si="23">IF(F706&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="707" spans="6:7">
       <c r="F707">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G707" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
     </row>
     <row r="708" spans="6:7">
       <c r="F708">
-        <f t="shared" ref="F708:F771" si="22">ROUND(((E708/10)+D708+IFERROR((VLOOKUP(B708,K708:L716,2,FALSE)+VLOOKUP(C708,K708:L716,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G708" s="1" t="str">
-        <f t="shared" ref="G708:G771" si="23">IF(F708&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
     </row>
@@ -9579,31 +9642,31 @@
     </row>
     <row r="770" spans="6:7">
       <c r="F770">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F770:F833" si="24">ROUND(((E770/10)+D770+IFERROR((VLOOKUP(B770,K770:L778,2,FALSE)+VLOOKUP(C770,K770:L778,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G770" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G770:G833" si="25">IF(F770&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="771" spans="6:7">
       <c r="F771">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G771" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
     <row r="772" spans="6:7">
       <c r="F772">
-        <f t="shared" ref="F772:F835" si="24">ROUND(((E772/10)+D772+IFERROR((VLOOKUP(B772,K772:L780,2,FALSE)+VLOOKUP(C772,K772:L780,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G772" s="1" t="str">
-        <f t="shared" ref="G772:G835" si="25">IF(F772&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -10219,31 +10282,31 @@
     </row>
     <row r="834" spans="6:7">
       <c r="F834">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="F834:F897" si="26">ROUND(((E834/10)+D834+IFERROR((VLOOKUP(B834,K834:L842,2,FALSE)+VLOOKUP(C834,K834:L842,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G834" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G834:G897" si="27">IF(F834&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="835" spans="6:7">
       <c r="F835">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G835" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
     </row>
     <row r="836" spans="6:7">
       <c r="F836">
-        <f t="shared" ref="F836:F899" si="26">ROUND(((E836/10)+D836+IFERROR((VLOOKUP(B836,K836:L844,2,FALSE)+VLOOKUP(C836,K836:L844,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G836" s="1" t="str">
-        <f t="shared" ref="G836:G899" si="27">IF(F836&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
     </row>
@@ -10859,31 +10922,31 @@
     </row>
     <row r="898" spans="6:7">
       <c r="F898">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F898:F961" si="28">ROUND(((E898/10)+D898+IFERROR((VLOOKUP(B898,K898:L906,2,FALSE)+VLOOKUP(C898,K898:L906,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G898" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G898:G961" si="29">IF(F898&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="899" spans="6:7">
       <c r="F899">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G899" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
     </row>
     <row r="900" spans="6:7">
       <c r="F900">
-        <f t="shared" ref="F900:F963" si="28">ROUND(((E900/10)+D900+IFERROR((VLOOKUP(B900,K900:L908,2,FALSE)+VLOOKUP(C900,K900:L908,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G900" s="1" t="str">
-        <f t="shared" ref="G900:G963" si="29">IF(F900&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
     </row>
@@ -11499,31 +11562,31 @@
     </row>
     <row r="962" spans="6:7">
       <c r="F962">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F962:F1000" si="30">ROUND(((E962/10)+D962+IFERROR((VLOOKUP(B962,K962:L970,2,FALSE)+VLOOKUP(C962,K962:L970,2,FALSE)),0))/3,0)</f>
         <v>0</v>
       </c>
       <c r="G962" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G962:G1000" si="31">IF(F962&gt;$L$11,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="963" spans="6:7">
       <c r="F963">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G963" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
     </row>
     <row r="964" spans="6:7">
       <c r="F964">
-        <f t="shared" ref="F964:F1000" si="30">ROUND(((E964/10)+D964+IFERROR((VLOOKUP(B964,K964:L972,2,FALSE)+VLOOKUP(C964,K964:L972,2,FALSE)),0))/3,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G964" s="1" t="str">
-        <f t="shared" ref="G964:G1000" si="31">IF(F964&gt;$L$11,"Yes","No")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
     </row>
